--- a/biology/Botanique/Saxifragaceae/Saxifragaceae.xlsx
+++ b/biology/Botanique/Saxifragaceae/Saxifragaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Saxifragaceae (Saxifragacées) est constituée de plantes à fleurs dicotylédones ; elle comprend environ 600 espèces réparties en une trentaine de genres.
 Ce sont des plantes herbacées parfois succulentes, annuelles ou pérennes, des zones froides à tempérées principalement dans l'hémisphère nord. Plantes d'aspect divers, herbacées ou ligneuses, à feuilles alternes ou opposées, généralement sans stipules.
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Saxifraga qui dérive du latin sax, saxum, pierre, rocher, et frag, fragere, briser[1]. Il s'agit d'un nom de diverses plantes de rochers censées aussi réduire la "pierre" (ou gravelle) de la vessie[2]. De fait certains auteurs du Moyen Âge assimilaient le Saxifraga au Lithospermum, aussi appelé « casse-pierre », dont « les semences, dures comme la pierre,  passaient pour pouvoir dissoudre les calculs vésicaux [3] ». 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Saxifraga qui dérive du latin sax, saxum, pierre, rocher, et frag, fragere, briser. Il s'agit d'un nom de diverses plantes de rochers censées aussi réduire la "pierre" (ou gravelle) de la vessie. De fait certains auteurs du Moyen Âge assimilaient le Saxifraga au Lithospermum, aussi appelé « casse-pierre », dont « les semences, dures comme la pierre,  passaient pour pouvoir dissoudre les calculs vésicaux  ». 
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,9 +587,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (28 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (28 avr. 2010) :
 genre Astilbe
 genre Astilboides
 genre Bensoniella
@@ -606,7 +624,7 @@
 genre Tellima
 genre Tiarella
 genre Tolmiea
-Selon Angiosperm Phylogeny Website                        (21 mai 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (21 mai 2010) :
 genre Astilbe Buch.-Ham. ex G.Don
 genre Astilboides (Hemsl.) Engl.
 genre Bensoniella C.V.Morton
@@ -638,7 +656,7 @@
 genre Tetilla DC.
 genre Tiarella L.
 genre Tolmiea Torrey &amp; A. Gray
-Selon DELTA Angio           (24 nov. 2018)[6] :
+Selon DELTA Angio           (24 nov. 2018) :
 genre Astilbe
 genre Astilboides
 genre Bensoniella
@@ -669,7 +687,7 @@
 genre Tellima
 genre Tiarella
 genre Tolmiea
-Selon ITIS      (24 nov. 2018)[7] :
+Selon ITIS      (24 nov. 2018) :
 genre Astilbe Buch.-Ham. ex D. Don
 genre Bensoniella C.V. Morton
 genre Bergenia Moench
@@ -724,7 +742,9 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Rodgersia est dédié à l'amiral John Rodgers (1812-1882) (article anglais) qui dirigea la United States North Pacific Exploring Expedition (article anglais) de 1852 à 1855, expédition au cours de laquelle le genre Rodgersia fut découvert.
 </t>
